--- a/uploaded_files/cleaned_Hanif+Rajput+Catering+Services_Profit+and+Loss-8.xlsx
+++ b/uploaded_files/cleaned_Hanif+Rajput+Catering+Services_Profit+and+Loss-8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mar 2024</t>
+          <t>1 Jul, 2023 - 30 Mar, 2024</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mar 2023 (PP)</t>
+          <t>1 Jul, 2022 - 30 Mar, 2023 (PP)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -466,196 +466,192 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Difference Mar 2024</t>
+          <t>Difference 1 Jul, 2023 - 30 Mar, 2024</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>% of Sales Mar 2024</t>
+          <t>% of Sales 1 Jul, 2023 - 30 Mar, 2024</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>% of Sales Mar 2023 (PP)</t>
+          <t>% of Sales 1 Jul, 2022 - 30 Mar, 2023 (PP)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>% Difference Mar 2024</t>
+          <t>% Difference 1 Jul, 2023 - 30 Mar, 2024</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of Sales Difference Mar 2024</t>
+          <t>Percentage of Sales Difference 1 Jul, 2023 - 30 Mar, 2024</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euphoria Décor</t>
+          <t xml:space="preserve"> Salaries- Operation Staff</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200000</v>
+        <v>41346905</v>
       </c>
       <c r="C2" t="n">
-        <v>3757000</v>
+        <v>35983987.33</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-3557000</v>
+        <v>5362917.670000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>12.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>10.8</v>
       </c>
       <c r="J2" t="n">
-        <v>-94.7</v>
+        <v>14.9</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Additional Food &amp; Stations</t>
+          <t xml:space="preserve"> Chicken</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>586939.3</v>
+        <v>31584301</v>
       </c>
       <c r="C3" t="n">
-        <v>516448</v>
+        <v>36158003.28</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>70491.30000000005</v>
+        <v>-4573702.280000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3</v>
+        <v>9.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7</v>
+        <v>10.9</v>
       </c>
       <c r="J3" t="n">
-        <v>13.6</v>
+        <v>-12.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Additional Item &amp; Setups</t>
+          <t xml:space="preserve"> Mutton</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2412988</v>
+        <v>23775608</v>
       </c>
       <c r="C4" t="n">
-        <v>2535150</v>
+        <v>24046624</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-122162</v>
+        <v>-271016</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>-4.8</v>
+        <v>-1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.9</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Total Income</t>
+          <t xml:space="preserve"> Utilitites</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45128733.5</v>
+        <v>17422851.79</v>
       </c>
       <c r="C5" t="n">
-        <v>74403974.45999999</v>
+        <v>12200143</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Key KPI</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Subtotals</t>
-        </is>
-      </c>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-29275240.95999999</v>
+        <v>5222708.789999999</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>-39.3</v>
+        <v>42.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mutton</t>
+          <t xml:space="preserve"> Other Dry Stock</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1378206</v>
+        <v>15561741</v>
       </c>
       <c r="C6" t="n">
-        <v>4146089</v>
+        <v>14325630.78</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -664,32 +660,32 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>-2767883</v>
+        <v>1236110.220000001</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>-66.8</v>
+        <v>8.6</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chicken</t>
+          <t xml:space="preserve"> Dairy &amp; Bakery Items</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4222087</v>
+        <v>15304457</v>
       </c>
       <c r="C7" t="n">
-        <v>11171353</v>
+        <v>12683930.74</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -701,32 +697,32 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-6949266</v>
+        <v>2620526.26</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>-62.2</v>
+        <v>20.7</v>
       </c>
       <c r="K7" t="n">
-        <v>-5.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outsourced Food</t>
+          <t xml:space="preserve"> Rents, rates &amp; taxes</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1003234</v>
+        <v>13197737</v>
       </c>
       <c r="C8" t="n">
-        <v>3315362</v>
+        <v>10508556</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -738,35 +734,35 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-2312128</v>
+        <v>2689181</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>-69.7</v>
+        <v>25.6</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Salaries- Operation Staff</t>
+          <t xml:space="preserve"> Fuel &amp; Transporation</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4811031</v>
+        <v>12291882</v>
       </c>
       <c r="C9" t="n">
-        <v>4896145</v>
+        <v>13212231.3</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -775,35 +771,35 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-85114</v>
+        <v>-920349.3000000007</v>
       </c>
       <c r="H9" t="n">
-        <v>10.7</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.7</v>
+        <v>-7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Utilitites</t>
+          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2849518</v>
+        <v>8669529</v>
       </c>
       <c r="C10" t="n">
-        <v>2556204</v>
+        <v>8412028</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -812,35 +808,35 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>293314</v>
+        <v>257501</v>
       </c>
       <c r="H10" t="n">
-        <v>6.3</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="n">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Printing &amp; Stationary</t>
+          <t xml:space="preserve"> Oil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14625</v>
+        <v>7376256</v>
       </c>
       <c r="C11" t="n">
-        <v>2098970</v>
+        <v>8693172.76</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -849,175 +845,389 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-2084345</v>
+        <v>-1316916.76</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J11" t="n">
-        <v>-99.3</v>
+        <v>-15.1</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Total Cost of Sales</t>
+          <t xml:space="preserve"> Wages &amp; Allowance</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34322712</v>
+        <v>7100965</v>
       </c>
       <c r="C12" t="n">
-        <v>52946930</v>
+        <v>8354416</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Key KPI</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Subtotals</t>
-        </is>
-      </c>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-18624218</v>
+        <v>-1253451</v>
       </c>
       <c r="H12" t="n">
-        <v>76.09999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>71.2</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-35.2</v>
+        <v>-15</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gross Profit</t>
+          <t xml:space="preserve"> Outsourced Food</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10806021.5</v>
+        <v>6995449</v>
       </c>
       <c r="C13" t="n">
-        <v>21457044.45999999</v>
+        <v>9884767</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Key KPI</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-10651022.95999999</v>
+        <v>-2889318</v>
       </c>
       <c r="H13" t="n">
-        <v>23.9</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>28.8</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>-49.6</v>
+        <v>-29.2</v>
       </c>
       <c r="K13" t="n">
-        <v>-4.9</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total Expenses</t>
+          <t xml:space="preserve"> Labour Out Sourced</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4751615.25</v>
+        <v>6910950</v>
       </c>
       <c r="C14" t="n">
-        <v>7084384.11</v>
+        <v>5625265</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Key KPI</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Subtotals</t>
-        </is>
-      </c>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>-2332768.86</v>
+        <v>1285685</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>-32.9</v>
+        <v>22.9</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Net Earnings</t>
+          <t xml:space="preserve"> Other Consumables</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10395549.65</v>
+        <v>6536746.6</v>
       </c>
       <c r="C15" t="n">
-        <v>12783602.53999999</v>
+        <v>7117116</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Key KPI</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>-2388052.889999993</v>
+        <v>-580369.4000000004</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>17.2</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>-18.7</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rice</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5914882</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5769558</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>145324</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beef</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5784255</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4459168</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1325087</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Disposible Material</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5742937</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7373230</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>-1630293</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-22.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages &amp; Soft drinks</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5594702</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4556449.65</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>1038252.35</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fish &amp; Prawns</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4083157</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4295326</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>-212169</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flour</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4023287</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3890931</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>132356</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/uploaded_files/cleaned_Hanif+Rajput+Catering+Services_Profit+and+Loss-8.xlsx
+++ b/uploaded_files/cleaned_Hanif+Rajput+Catering+Services_Profit+and+Loss-8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,125 +493,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Salaries- Operation Staff</t>
+          <t xml:space="preserve"> Euphoria Décor</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41346905</v>
+        <v>12726000</v>
       </c>
       <c r="C2" t="n">
-        <v>35983987.33</v>
+        <v>25184739</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>5362917.670000002</v>
+        <v>-12458739</v>
       </c>
       <c r="H2" t="n">
-        <v>12.4</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>10.8</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>14.9</v>
+        <v>-49.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.6</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chicken</t>
+          <t xml:space="preserve"> Setup &amp; Services</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31584301</v>
+        <v>982750</v>
       </c>
       <c r="C3" t="n">
-        <v>36158003.28</v>
+        <v>1670120</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>-4573702.280000001</v>
+        <v>-687370</v>
       </c>
       <c r="H3" t="n">
-        <v>9.5</v>
+        <v>0.3</v>
       </c>
       <c r="I3" t="n">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
-        <v>-12.6</v>
+        <v>-41.2</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mutton</t>
+          <t>Total Income</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23775608</v>
+        <v>332777400.69</v>
       </c>
       <c r="C4" t="n">
-        <v>24046624</v>
+        <v>331765757.4400001</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>-271016</v>
+        <v>1011643.24999994</v>
       </c>
       <c r="H4" t="n">
-        <v>7.1</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.1</v>
+        <v>0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Utilitites</t>
+          <t xml:space="preserve"> Chicken</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17422851.79</v>
+        <v>31584301</v>
       </c>
       <c r="C5" t="n">
-        <v>12200143</v>
+        <v>36158003.28</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -623,35 +627,35 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>5222708.789999999</v>
+        <v>-4573702.280000001</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>10.9</v>
       </c>
       <c r="J5" t="n">
-        <v>42.8</v>
+        <v>-12.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.6</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Dry Stock</t>
+          <t xml:space="preserve"> Outsourced Food</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15561741</v>
+        <v>6995449</v>
       </c>
       <c r="C6" t="n">
-        <v>14325630.78</v>
+        <v>9884767</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -660,19 +664,19 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1236110.220000001</v>
+        <v>-2889318</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>8.6</v>
+        <v>-29.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="7">
@@ -715,14 +719,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rents, rates &amp; taxes</t>
+          <t xml:space="preserve"> Salaries- Operation Staff</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13197737</v>
+        <v>41346905</v>
       </c>
       <c r="C8" t="n">
-        <v>10508556</v>
+        <v>35983987.33</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -734,35 +738,35 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>2689181</v>
+        <v>5362917.670000002</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>12.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>10.8</v>
       </c>
       <c r="J8" t="n">
-        <v>25.6</v>
+        <v>14.9</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+          <t xml:space="preserve"> Rents, rates &amp; taxes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12291882</v>
+        <v>13197737</v>
       </c>
       <c r="C9" t="n">
-        <v>13212231.3</v>
+        <v>10508556</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -771,35 +775,35 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-920349.3000000007</v>
+        <v>2689181</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>-7</v>
+        <v>25.6</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
+          <t xml:space="preserve"> Utilitites</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8669529</v>
+        <v>17422851.79</v>
       </c>
       <c r="C10" t="n">
-        <v>8412028</v>
+        <v>12200143</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -808,425 +812,1136 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>257501</v>
+        <v>5222708.789999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>42.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oil</t>
+          <t>Total Cost of Sales</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7376256</v>
+        <v>254606222.39</v>
       </c>
       <c r="C11" t="n">
-        <v>8693172.76</v>
+        <v>247185381.84</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>-1316916.76</v>
+        <v>7420840.550000012</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>76.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.6</v>
+        <v>74.5</v>
       </c>
       <c r="J11" t="n">
-        <v>-15.1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wages &amp; Allowance</t>
+          <t>Gross Profit</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7100965</v>
+        <v>78171178.30000001</v>
       </c>
       <c r="C12" t="n">
-        <v>8354416</v>
+        <v>84580375.60000008</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Key KPI</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-1253451</v>
+        <v>-6409197.300000072</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1</v>
+        <v>23.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>25.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-15</v>
+        <v>-7.6</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outsourced Food</t>
+          <t xml:space="preserve"> Sales</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6995449</v>
+        <v>5879250</v>
       </c>
       <c r="C13" t="n">
-        <v>9884767</v>
+        <v>2019583</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-2889318</v>
+        <v>3859667</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="J13" t="n">
-        <v>-29.2</v>
+        <v>191.1</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Labour Out Sourced</t>
+          <t xml:space="preserve"> Accounts &amp; Finance</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6910950</v>
+        <v>9639449</v>
       </c>
       <c r="C14" t="n">
-        <v>5625265</v>
+        <v>2308648</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>1285685</v>
+        <v>7330801</v>
       </c>
       <c r="H14" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="J14" t="n">
-        <v>22.9</v>
+        <v>317.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Consumables</t>
+          <t xml:space="preserve"> Admin &amp; HR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6536746.6</v>
+        <v>3327771</v>
       </c>
       <c r="C15" t="n">
-        <v>7117116</v>
+        <v>934851</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>-580369.4000000004</v>
+        <v>2392920</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="J15" t="n">
-        <v>-8.199999999999999</v>
+        <v>256</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rice</t>
+          <t xml:space="preserve"> Equipment Repair</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5914882</v>
+        <v>257905</v>
       </c>
       <c r="C16" t="n">
-        <v>5769558</v>
+        <v>41900</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>145324</v>
+        <v>216005</v>
       </c>
       <c r="H16" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>515.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beef</t>
+          <t xml:space="preserve"> Local Traveling</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5784255</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4459168</v>
+        <v>32530</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>1325087</v>
+        <v>-32530</v>
       </c>
       <c r="H17" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.7</v>
+        <v>-100</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Disposible Material</t>
+          <t xml:space="preserve"> Ad Production</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5742937</v>
+        <v>40000</v>
       </c>
       <c r="C18" t="n">
-        <v>7373230</v>
+        <v>229446</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>-1630293</v>
+        <v>-189446</v>
       </c>
       <c r="H18" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="J18" t="n">
-        <v>-22.1</v>
+        <v>-82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beverages &amp; Soft drinks</t>
+          <t>Total Expenses</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5594702</v>
+        <v>48788848.84</v>
       </c>
       <c r="C19" t="n">
-        <v>4556449.65</v>
+        <v>38988422</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>1038252.35</v>
+        <v>9800426.840000004</v>
       </c>
       <c r="H19" t="n">
-        <v>1.7</v>
+        <v>14.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.4</v>
+        <v>11.8</v>
       </c>
       <c r="J19" t="n">
-        <v>22.8</v>
+        <v>25.1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fish &amp; Prawns</t>
+          <t xml:space="preserve"> Bank Service Charges</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4083157</v>
+        <v>284725.23</v>
       </c>
       <c r="C20" t="n">
-        <v>4295326</v>
+        <v>100473.75</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>-212169</v>
+        <v>184251.48</v>
       </c>
       <c r="H20" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-4.9</v>
+        <v>183.4</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Flour</t>
+          <t xml:space="preserve"> Other expenses-Other</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4023287</v>
+        <v>153555</v>
       </c>
       <c r="C21" t="n">
-        <v>3890931</v>
+        <v>4949160.1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>132356</v>
+        <v>-4795605.1</v>
       </c>
       <c r="H21" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>-96.90000000000001</v>
       </c>
       <c r="K21" t="n">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Net Earnings</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>53944122.73</v>
+      </c>
+      <c r="C22" t="n">
+        <v>41962235.27000006</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>11981887.45999994</v>
+      </c>
+      <c r="H22" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mutton</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>23775608</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24046624</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>-271016</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other Dry Stock</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15561741</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14325630.78</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1236110.220000001</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12291882</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13212231.3</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>-920349.3000000007</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8669529</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8412028</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>257501</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oil</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7376256</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8693172.76</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>-1316916.76</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>26320006</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30439970</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>-4119964</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Euphoria Outsourced Items Rental</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>12796500</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10029516</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2766984</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Professional Services</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4789650</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4308401.5</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>481248.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fuel Charges</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3789629</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3003078</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>786551</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fee &amp; Subcription</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3280680.47</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2846447.9</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>434232.5700000003</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sales Rep Commission</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3022807</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2321785</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>701022</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Office Rent</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2800700</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1697583</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>1103117</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>65</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Catering &amp; Décor (Menu Sale)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>200839444.89</v>
+      </c>
+      <c r="C35" t="n">
+        <v>182811116.9</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>18028327.98999998</v>
+      </c>
+      <c r="H35" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Food/Kg/Box</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>81422675.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>88376502.44</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>-6953826.939999998</v>
+      </c>
+      <c r="H36" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Additional Item &amp; Setups</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>22302630</v>
+      </c>
+      <c r="C37" t="n">
+        <v>19585207.1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2717422.899999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beverages</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>7870780</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7126955</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>743825</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Additional Food &amp; Stations</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5269320.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5794517</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>-525196.7000000002</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kitchen Overhead Share</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1363800</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1216600</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>147200</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>

--- a/uploaded_files/cleaned_Hanif+Rajput+Catering+Services_Profit+and+Loss-8.xlsx
+++ b/uploaded_files/cleaned_Hanif+Rajput+Catering+Services_Profit+and+Loss-8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
         <v>332777400.69</v>
       </c>
       <c r="C4" t="n">
-        <v>331765757.4400001</v>
+        <v>331765757.44</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1011643.24999994</v>
+        <v>1011643.25</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7420840.550000012</v>
+        <v>7420840.549999982</v>
       </c>
       <c r="H11" t="n">
         <v>76.5</v>
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78171178.30000001</v>
+        <v>78171178.3</v>
       </c>
       <c r="C12" t="n">
-        <v>84580375.60000008</v>
+        <v>84580375.59999999</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-6409197.300000072</v>
+        <v>-6409197.299999997</v>
       </c>
       <c r="H12" t="n">
         <v>23.5</v>
@@ -908,280 +908,280 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sales</t>
+          <t>Total Expenses</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5879250</v>
+        <v>48788848.84</v>
       </c>
       <c r="C13" t="n">
-        <v>2019583</v>
+        <v>38988422</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Key KPI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Subtotals</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>3859667</v>
+        <v>9800426.840000004</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>14.7</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6</v>
+        <v>11.8</v>
       </c>
       <c r="J13" t="n">
-        <v>191.1</v>
+        <v>25.1</v>
       </c>
       <c r="K13" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accounts &amp; Finance</t>
+          <t>Net Earnings</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9639449</v>
+        <v>53944122.73</v>
       </c>
       <c r="C14" t="n">
-        <v>2308648</v>
+        <v>41962235.27</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Key KPI</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>7330801</v>
+        <v>11981887.45999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>16.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7</v>
+        <v>12.6</v>
       </c>
       <c r="J14" t="n">
-        <v>317.5</v>
+        <v>28.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Admin &amp; HR</t>
+          <t xml:space="preserve"> Mutton</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3327771</v>
+        <v>23775608</v>
       </c>
       <c r="C15" t="n">
-        <v>934851</v>
+        <v>24046624</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>2392920</v>
+        <v>-271016</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3</v>
+        <v>7.2</v>
       </c>
       <c r="J15" t="n">
-        <v>256</v>
+        <v>-1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Equipment Repair</t>
+          <t xml:space="preserve"> Other Dry Stock</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>257905</v>
+        <v>15561741</v>
       </c>
       <c r="C16" t="n">
-        <v>41900</v>
+        <v>14325630.78</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>216005</v>
+        <v>1236110.220000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>515.5</v>
+        <v>8.6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Local Traveling</t>
+          <t xml:space="preserve"> Fuel &amp; Transporation</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>12291882</v>
       </c>
       <c r="C17" t="n">
-        <v>32530</v>
+        <v>13212231.3</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>-32530</v>
+        <v>-920349.3000000007</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>-100</v>
+        <v>-7</v>
       </c>
       <c r="K17" t="n">
-        <v>-0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ad Production</t>
+          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40000</v>
+        <v>8669529</v>
       </c>
       <c r="C18" t="n">
-        <v>229446</v>
+        <v>8412028</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Cost of Sales</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>-189446</v>
+        <v>257501</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-82.59999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total Expenses</t>
+          <t xml:space="preserve"> Oil</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48788848.84</v>
+        <v>7376256</v>
       </c>
       <c r="C19" t="n">
-        <v>38988422</v>
+        <v>8693172.76</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Key KPI</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Subtotals</t>
-        </is>
-      </c>
+          <t>Cost of Sales</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>9800426.840000004</v>
+        <v>-1316916.76</v>
       </c>
       <c r="H19" t="n">
-        <v>14.7</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>11.8</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>25.1</v>
+        <v>-15.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.9</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bank Service Charges</t>
+          <t xml:space="preserve"> Outsourced Items Rental</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>284725.23</v>
+        <v>26320006</v>
       </c>
       <c r="C20" t="n">
-        <v>100473.75</v>
+        <v>30439970</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1190,35 +1190,35 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>184251.48</v>
+        <v>-4119964</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1</v>
+        <v>7.9</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>183.4</v>
+        <v>-13.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other expenses-Other</t>
+          <t xml:space="preserve"> Euphoria Outsourced Items Rental</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>153555</v>
+        <v>12796500</v>
       </c>
       <c r="C21" t="n">
-        <v>4949160.1</v>
+        <v>10029516</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1227,254 +1227,254 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>-4795605.1</v>
+        <v>2766984</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>-96.90000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Net Earnings</t>
+          <t xml:space="preserve"> Accounts &amp; Finance</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53944122.73</v>
+        <v>9639449</v>
       </c>
       <c r="C22" t="n">
-        <v>41962235.27000006</v>
+        <v>2308648</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Key KPI</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>11981887.45999994</v>
+        <v>7330801</v>
       </c>
       <c r="H22" t="n">
-        <v>16.2</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>12.6</v>
+        <v>0.7</v>
       </c>
       <c r="J22" t="n">
-        <v>28.6</v>
+        <v>317.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mutton</t>
+          <t xml:space="preserve"> Sales</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23775608</v>
+        <v>5879250</v>
       </c>
       <c r="C23" t="n">
-        <v>24046624</v>
+        <v>2019583</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>-271016</v>
+        <v>3859667</v>
       </c>
       <c r="H23" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="I23" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.1</v>
+        <v>191.1</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Other Dry Stock</t>
+          <t xml:space="preserve"> Professional Services</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15561741</v>
+        <v>4789650</v>
       </c>
       <c r="C24" t="n">
-        <v>14325630.78</v>
+        <v>4308401.5</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>1236110.220000001</v>
+        <v>481248.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="J24" t="n">
-        <v>8.6</v>
+        <v>11.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fuel &amp; Transporation</t>
+          <t xml:space="preserve"> Fuel Charges</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12291882</v>
+        <v>3789629</v>
       </c>
       <c r="C25" t="n">
-        <v>13212231.3</v>
+        <v>3003078</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>-920349.3000000007</v>
+        <v>786551</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="J25" t="n">
-        <v>-7</v>
+        <v>26.2</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vegetables &amp; Fruits</t>
+          <t xml:space="preserve"> Admin &amp; HR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8669529</v>
+        <v>3327771</v>
       </c>
       <c r="C26" t="n">
-        <v>8412028</v>
+        <v>934851</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>257501</v>
+        <v>2392920</v>
       </c>
       <c r="H26" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>256</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oil</t>
+          <t xml:space="preserve"> Fee &amp; Subcription</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7376256</v>
+        <v>3280680.47</v>
       </c>
       <c r="C27" t="n">
-        <v>8693172.76</v>
+        <v>2846447.9</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cost of Sales</t>
+          <t>Expenses</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>-1316916.76</v>
+        <v>434232.5700000003</v>
       </c>
       <c r="H27" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="J27" t="n">
-        <v>-15.1</v>
+        <v>15.3</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outsourced Items Rental</t>
+          <t xml:space="preserve"> Sales Rep Commission</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26320006</v>
+        <v>3022807</v>
       </c>
       <c r="C28" t="n">
-        <v>30439970</v>
+        <v>2321785</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1486,32 +1486,32 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>-4119964</v>
+        <v>701022</v>
       </c>
       <c r="H28" t="n">
-        <v>7.9</v>
+        <v>0.9</v>
       </c>
       <c r="I28" t="n">
-        <v>9.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="J28" t="n">
-        <v>-13.5</v>
+        <v>30.2</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Euphoria Outsourced Items Rental</t>
+          <t xml:space="preserve"> Office Rent</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12796500</v>
+        <v>2800700</v>
       </c>
       <c r="C29" t="n">
-        <v>10029516</v>
+        <v>1697583</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1523,164 +1523,164 @@
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>2766984</v>
+        <v>1103117</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J29" t="n">
-        <v>27.6</v>
+        <v>65</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Professional Services</t>
+          <t xml:space="preserve"> Catering &amp; Décor (Menu Sale)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4789650</v>
+        <v>200839444.89</v>
       </c>
       <c r="C30" t="n">
-        <v>4308401.5</v>
+        <v>182811116.9</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>481248.5</v>
+        <v>18028327.98999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1.4</v>
+        <v>60.4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.3</v>
+        <v>55.1</v>
       </c>
       <c r="J30" t="n">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fuel Charges</t>
+          <t xml:space="preserve"> Food/Kg/Box</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3789629</v>
+        <v>81422675.5</v>
       </c>
       <c r="C31" t="n">
-        <v>3003078</v>
+        <v>88376502.44</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>786551</v>
+        <v>-6953826.939999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1.1</v>
+        <v>24.5</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9</v>
+        <v>26.6</v>
       </c>
       <c r="J31" t="n">
-        <v>26.2</v>
+        <v>-7.9</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fee &amp; Subcription</t>
+          <t xml:space="preserve"> Additional Item &amp; Setups</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3280680.47</v>
+        <v>22302630</v>
       </c>
       <c r="C32" t="n">
-        <v>2846447.9</v>
+        <v>19585207.1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>434232.5700000003</v>
+        <v>2717422.899999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="J32" t="n">
-        <v>15.3</v>
+        <v>13.9</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sales Rep Commission</t>
+          <t xml:space="preserve"> Beverages</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3022807</v>
+        <v>7870780</v>
       </c>
       <c r="C33" t="n">
-        <v>2321785</v>
+        <v>7126955</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>701022</v>
+        <v>743825</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="J33" t="n">
-        <v>30.2</v>
+        <v>10.4</v>
       </c>
       <c r="K33" t="n">
         <v>0.2</v>
@@ -1689,51 +1689,51 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Office Rent</t>
+          <t xml:space="preserve"> Additional Food &amp; Stations</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2800700</v>
+        <v>5269320.3</v>
       </c>
       <c r="C34" t="n">
-        <v>1697583</v>
+        <v>5794517</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>1103117</v>
+        <v>-525196.7000000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="J34" t="n">
-        <v>65</v>
+        <v>-9.1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Catering &amp; Décor (Menu Sale)</t>
+          <t xml:space="preserve"> Kitchen Overhead Share</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200839444.89</v>
+        <v>1363800</v>
       </c>
       <c r="C35" t="n">
-        <v>182811116.9</v>
+        <v>1216600</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1745,32 +1745,32 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>18028327.98999998</v>
+        <v>147200</v>
       </c>
       <c r="H35" t="n">
-        <v>60.4</v>
+        <v>0.4</v>
       </c>
       <c r="I35" t="n">
-        <v>55.1</v>
+        <v>0.4</v>
       </c>
       <c r="J35" t="n">
-        <v>9.9</v>
+        <v>12.1</v>
       </c>
       <c r="K35" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Food/Kg/Box</t>
+          <t xml:space="preserve"> Euphoria</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>81422675.5</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>88376502.44</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1782,32 +1782,30 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>-6953826.939999998</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>-7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>-2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Additional Item &amp; Setups</t>
+          <t xml:space="preserve"> Food Sale</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22302630</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19585207.1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1819,129 +1817,16 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>2717422.899999999</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Beverages</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>7870780</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7126955</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>743825</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Additional Food &amp; Stations</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>5269320.3</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5794517</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
-        <v>-525196.7000000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>-9.1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kitchen Overhead Share</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1363800</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1216600</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>147200</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>
